--- a/Code/Results/Cases/Case_10_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_10_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.44307359118704</v>
+        <v>21.02298945387147</v>
       </c>
       <c r="C2">
-        <v>18.84945595138836</v>
+        <v>13.35200873456615</v>
       </c>
       <c r="D2">
-        <v>10.02066305241336</v>
+        <v>3.708153831749428</v>
       </c>
       <c r="E2">
-        <v>29.10526702065993</v>
+        <v>7.002166660019951</v>
       </c>
       <c r="F2">
-        <v>63.03962927701833</v>
+        <v>28.25638421513074</v>
       </c>
       <c r="G2">
-        <v>2.074527469938671</v>
+        <v>36.81294995755283</v>
       </c>
       <c r="H2">
-        <v>3.089966362669392</v>
+        <v>3.159430025497081</v>
       </c>
       <c r="I2">
-        <v>3.037267292020123</v>
+        <v>3.673202162523504</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.45158673481173</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.99576210945419</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.51282715572256</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.028383481657625</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.961193140427467</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.13266816192685</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.75403469952843</v>
+        <v>19.66639252114106</v>
       </c>
       <c r="C3">
-        <v>17.53033396951019</v>
+        <v>12.42127163507427</v>
       </c>
       <c r="D3">
-        <v>9.477274155190834</v>
+        <v>3.648478038541354</v>
       </c>
       <c r="E3">
-        <v>27.02775996347093</v>
+        <v>6.920197602244259</v>
       </c>
       <c r="F3">
-        <v>59.07048019432784</v>
+        <v>27.85526038095865</v>
       </c>
       <c r="G3">
-        <v>2.084514762941586</v>
+        <v>36.14191616284359</v>
       </c>
       <c r="H3">
-        <v>2.711583836633365</v>
+        <v>3.390543851507708</v>
       </c>
       <c r="I3">
-        <v>2.666704839883651</v>
+        <v>3.856887035225181</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.35253345994715</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.03472233115982</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.980227129125726</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.976329302920783</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.775809720038904</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.4838603504</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.65952378285824</v>
+        <v>18.78403517100346</v>
       </c>
       <c r="C4">
-        <v>16.68690558818472</v>
+        <v>11.82219747688023</v>
       </c>
       <c r="D4">
-        <v>9.126601439550928</v>
+        <v>3.612573779173537</v>
       </c>
       <c r="E4">
-        <v>25.68821643124625</v>
+        <v>6.868365340623835</v>
       </c>
       <c r="F4">
-        <v>56.50830951348823</v>
+        <v>27.60730526900484</v>
       </c>
       <c r="G4">
-        <v>2.090765124095499</v>
+        <v>35.72767717252984</v>
       </c>
       <c r="H4">
-        <v>2.473648940128331</v>
+        <v>3.537295413361161</v>
       </c>
       <c r="I4">
-        <v>2.509508808433992</v>
+        <v>3.974258423839813</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.29031453467306</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.05850030992828</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.302157196367173</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.943291409693821</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.661143482408964</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.06963854412193</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.19839618377675</v>
+        <v>18.41173690476625</v>
       </c>
       <c r="C5">
-        <v>16.35017261237931</v>
+        <v>11.5809194406312</v>
       </c>
       <c r="D5">
-        <v>8.962248306382884</v>
+        <v>3.599341171077111</v>
       </c>
       <c r="E5">
-        <v>25.1250067760214</v>
+        <v>6.846374218591221</v>
       </c>
       <c r="F5">
-        <v>55.35697436933109</v>
+        <v>27.488939808437</v>
       </c>
       <c r="G5">
-        <v>2.093373239817404</v>
+        <v>35.52813944724215</v>
       </c>
       <c r="H5">
-        <v>2.374520949779008</v>
+        <v>3.598726159230725</v>
       </c>
       <c r="I5">
-        <v>2.613255113535315</v>
+        <v>4.026115558389753</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.25871842611746</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.05603767762507</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.442503261738292</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.929213078996385</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.615924705876681</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.89846705607539</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.12034009970148</v>
+        <v>18.34878115899253</v>
       </c>
       <c r="C6">
-        <v>16.31276175098225</v>
+        <v>11.55236148184242</v>
       </c>
       <c r="D6">
-        <v>8.913715193426158</v>
+        <v>3.598638537749969</v>
       </c>
       <c r="E6">
-        <v>25.02928931015711</v>
+        <v>6.842114782507319</v>
       </c>
       <c r="F6">
-        <v>55.07122712887607</v>
+        <v>27.44858264945371</v>
       </c>
       <c r="G6">
-        <v>2.093843404499031</v>
+        <v>35.45808312275759</v>
       </c>
       <c r="H6">
-        <v>2.357148475066212</v>
+        <v>3.609475734000463</v>
       </c>
       <c r="I6">
-        <v>2.635588437125068</v>
+        <v>4.038461187686898</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.24625305053296</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.04087525726605</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.467359541991472</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.926447739705135</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.610450344312828</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.87158431905079</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.65169548959532</v>
+        <v>18.77805806637825</v>
       </c>
       <c r="C7">
-        <v>16.73292013436325</v>
+        <v>11.84313421556611</v>
       </c>
       <c r="D7">
-        <v>9.067926423508622</v>
+        <v>3.619968416811146</v>
       </c>
       <c r="E7">
-        <v>25.67736305216642</v>
+        <v>6.866140075093311</v>
       </c>
       <c r="F7">
-        <v>56.24481937174074</v>
+        <v>27.51880707239485</v>
       </c>
       <c r="G7">
-        <v>2.090896024981767</v>
+        <v>35.6775573955419</v>
       </c>
       <c r="H7">
-        <v>2.470075046960208</v>
+        <v>3.54017343352067</v>
       </c>
       <c r="I7">
-        <v>2.524493452909088</v>
+        <v>3.985371009288999</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.21688758127937</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.00034526754084</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.308297423052725</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.941436505709978</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.666247234742073</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.07244038777311</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.870143067299</v>
+        <v>20.5641520316097</v>
       </c>
       <c r="C8">
-        <v>18.46235242138411</v>
+        <v>13.05237609184531</v>
       </c>
       <c r="D8">
-        <v>9.765799130928215</v>
+        <v>3.704547549696933</v>
       </c>
       <c r="E8">
-        <v>28.39744764467337</v>
+        <v>6.971156461930391</v>
       </c>
       <c r="F8">
-        <v>61.38995501941691</v>
+        <v>27.94755232211135</v>
       </c>
       <c r="G8">
-        <v>2.078075537225312</v>
+        <v>36.62466552500481</v>
       </c>
       <c r="H8">
-        <v>2.957617360055809</v>
+        <v>3.242119680036998</v>
       </c>
       <c r="I8">
-        <v>2.908925381665187</v>
+        <v>3.750189452408774</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.22008441209307</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.8992912426446</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.67450459846519</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.007658683375997</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.905187572667774</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.91922702930056</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.77635781228673</v>
+        <v>23.67680435603592</v>
       </c>
       <c r="C9">
-        <v>21.51752086636726</v>
+        <v>15.18051026804056</v>
       </c>
       <c r="D9">
-        <v>11.09435833615976</v>
+        <v>3.855716425138096</v>
       </c>
       <c r="E9">
-        <v>33.24354161310295</v>
+        <v>7.169576706140679</v>
       </c>
       <c r="F9">
-        <v>70.89697344570428</v>
+        <v>28.98398649987306</v>
       </c>
       <c r="G9">
-        <v>2.053570185398751</v>
+        <v>38.43994009052459</v>
       </c>
       <c r="H9">
-        <v>3.877518438033591</v>
+        <v>2.690196840479552</v>
       </c>
       <c r="I9">
-        <v>3.818003966742009</v>
+        <v>3.306250857700727</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.44235866842179</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.83660515368271</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.725698515142313</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.132933133572969</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.354687564917024</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.43898758749787</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.36896984993525</v>
+        <v>25.75737334785565</v>
       </c>
       <c r="C10">
-        <v>23.60291155827736</v>
+        <v>16.6259061115537</v>
       </c>
       <c r="D10">
-        <v>11.73454473692673</v>
+        <v>3.986083224393748</v>
       </c>
       <c r="E10">
-        <v>35.62103610224544</v>
+        <v>7.298290238365357</v>
       </c>
       <c r="F10">
-        <v>76.20990935265392</v>
+        <v>29.31889389828893</v>
       </c>
       <c r="G10">
-        <v>2.036709757866656</v>
+        <v>39.62485122265488</v>
       </c>
       <c r="H10">
-        <v>4.482358605421413</v>
+        <v>2.337535539585881</v>
       </c>
       <c r="I10">
-        <v>4.449622519871673</v>
+        <v>3.015892541122672</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.23730223583063</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.54069865062582</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.275903519715636</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.220838700297749</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.618432056617293</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.43042796216682</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.36121202343197</v>
+        <v>26.7354429452627</v>
       </c>
       <c r="C11">
-        <v>24.30366210427836</v>
+        <v>17.56302794917108</v>
       </c>
       <c r="D11">
-        <v>9.970562816033523</v>
+        <v>4.02826820158019</v>
       </c>
       <c r="E11">
-        <v>29.02521488677462</v>
+        <v>7.357929607942965</v>
       </c>
       <c r="F11">
-        <v>69.78476296936714</v>
+        <v>27.11574342043858</v>
       </c>
       <c r="G11">
-        <v>2.03570407727512</v>
+        <v>37.31918078952726</v>
       </c>
       <c r="H11">
-        <v>4.790747882991368</v>
+        <v>3.145459794461273</v>
       </c>
       <c r="I11">
-        <v>4.510909130059678</v>
+        <v>2.955108362982649</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.07424573121825</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.03900691979055</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.232502878163926</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.340028566321861</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.219473672579232</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.50954340097821</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.68585877720369</v>
+        <v>27.1403361384365</v>
       </c>
       <c r="C12">
-        <v>24.44128593523203</v>
+        <v>18.04816282676583</v>
       </c>
       <c r="D12">
-        <v>8.470649040072542</v>
+        <v>4.013354910826989</v>
       </c>
       <c r="E12">
-        <v>23.0426619106675</v>
+        <v>7.493434502079264</v>
       </c>
       <c r="F12">
-        <v>63.59460163662632</v>
+        <v>25.35933963075073</v>
       </c>
       <c r="G12">
-        <v>2.037548408334782</v>
+        <v>35.05127174878837</v>
       </c>
       <c r="H12">
-        <v>5.512775492837027</v>
+        <v>4.412011793741275</v>
       </c>
       <c r="I12">
-        <v>4.456295562001463</v>
+        <v>2.939138682164239</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.37674999771706</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.00516094335027</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.254385976959186</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.492300521397564</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.828187609122575</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.35851729501417</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.52803904234584</v>
+        <v>27.14125846758431</v>
       </c>
       <c r="C13">
-        <v>24.22003956114179</v>
+        <v>18.28278517239426</v>
       </c>
       <c r="D13">
-        <v>7.009883965657012</v>
+        <v>3.953328026812956</v>
       </c>
       <c r="E13">
-        <v>17.05336036085701</v>
+        <v>7.690347221489263</v>
       </c>
       <c r="F13">
-        <v>56.73539812628097</v>
+        <v>23.80484782088631</v>
       </c>
       <c r="G13">
-        <v>2.041798004963339</v>
+        <v>32.37594209316627</v>
       </c>
       <c r="H13">
-        <v>6.450362237943956</v>
+        <v>5.780636808687649</v>
       </c>
       <c r="I13">
-        <v>4.308155851271346</v>
+        <v>2.972981624620929</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.01942093942917</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.23775893911483</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.314684843603464</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.667597817446262</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.426122587711328</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.02278024203265</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.20074615630609</v>
+        <v>26.96434540804086</v>
       </c>
       <c r="C14">
-        <v>23.91840789243268</v>
+        <v>18.34483681237434</v>
       </c>
       <c r="D14">
-        <v>6.025607134096393</v>
+        <v>3.894283950030647</v>
       </c>
       <c r="E14">
-        <v>12.91878041738623</v>
+        <v>7.866883750826655</v>
       </c>
       <c r="F14">
-        <v>51.49898527829699</v>
+        <v>22.78793382284488</v>
       </c>
       <c r="G14">
-        <v>2.045765259257151</v>
+        <v>30.29374350584663</v>
       </c>
       <c r="H14">
-        <v>7.201276089694248</v>
+        <v>6.7672337569523</v>
       </c>
       <c r="I14">
-        <v>4.16614545595082</v>
+        <v>3.022560383333647</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.893671211947993</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.81537261688148</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.375834490580852</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.804231765145468</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.145275976217827</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.70087219279887</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.01509405687257</v>
+        <v>26.8355334355682</v>
       </c>
       <c r="C15">
-        <v>23.77999269105106</v>
+        <v>18.31524340254113</v>
       </c>
       <c r="D15">
-        <v>5.778124340762592</v>
+        <v>3.873608149136919</v>
       </c>
       <c r="E15">
-        <v>11.90505057293832</v>
+        <v>7.909019532376563</v>
       </c>
       <c r="F15">
-        <v>49.98084492291337</v>
+        <v>22.55851341747129</v>
       </c>
       <c r="G15">
-        <v>2.047349627796285</v>
+        <v>29.68334377526014</v>
       </c>
       <c r="H15">
-        <v>7.37155626470092</v>
+        <v>6.999785213746794</v>
       </c>
       <c r="I15">
-        <v>4.109105430901421</v>
+        <v>3.050877282317139</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.909809469535212</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.7454374505292</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.402955015181365</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.83373959450611</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.075333258807984</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.58434675055866</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.98938299365462</v>
+        <v>25.99885128971792</v>
       </c>
       <c r="C16">
-        <v>23.00271204771266</v>
+        <v>17.76822301869774</v>
       </c>
       <c r="D16">
-        <v>5.728103560500506</v>
+        <v>3.808619447575472</v>
       </c>
       <c r="E16">
-        <v>11.57793924659197</v>
+        <v>7.820458131186495</v>
       </c>
       <c r="F16">
-        <v>48.56665406277664</v>
+        <v>22.87071763691104</v>
       </c>
       <c r="G16">
-        <v>2.053498711515744</v>
+        <v>29.14862689263902</v>
       </c>
       <c r="H16">
-        <v>7.055752869198356</v>
+        <v>6.825453530421702</v>
       </c>
       <c r="I16">
-        <v>3.877767251533557</v>
+        <v>3.170218841875337</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.36705848672571</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.09250604395836</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.531539779569592</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.749469223553846</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.041117637909668</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.22326845779049</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.36448092993919</v>
+        <v>25.43838712923066</v>
       </c>
       <c r="C17">
-        <v>22.55793443121987</v>
+        <v>17.29482824536527</v>
       </c>
       <c r="D17">
-        <v>6.19513540705</v>
+        <v>3.79302877118944</v>
       </c>
       <c r="E17">
-        <v>13.59355848671587</v>
+        <v>7.645119725788908</v>
       </c>
       <c r="F17">
-        <v>50.37157133274903</v>
+        <v>23.62536411356108</v>
       </c>
       <c r="G17">
-        <v>2.056209579269872</v>
+        <v>29.93223760582421</v>
       </c>
       <c r="H17">
-        <v>6.353811635908204</v>
+        <v>6.142897069150115</v>
       </c>
       <c r="I17">
-        <v>3.772518732282649</v>
+        <v>3.236940682713846</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.75755376794741</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.57258911666111</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.60945504400239</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.60919817937389</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.162934949568647</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.1210347618671</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.0326828153557</v>
+        <v>25.06471080170293</v>
       </c>
       <c r="C18">
-        <v>22.33313476896589</v>
+        <v>16.8299577920508</v>
       </c>
       <c r="D18">
-        <v>7.282784649532969</v>
+        <v>3.806989795267599</v>
       </c>
       <c r="E18">
-        <v>18.16992540045136</v>
+        <v>7.424713290455574</v>
       </c>
       <c r="F18">
-        <v>55.3707338003543</v>
+        <v>24.95433735247541</v>
       </c>
       <c r="G18">
-        <v>2.055887887705688</v>
+        <v>31.90217066035</v>
       </c>
       <c r="H18">
-        <v>5.333293727927019</v>
+        <v>4.988025434911941</v>
       </c>
       <c r="I18">
-        <v>3.773529732633144</v>
+        <v>3.251463953817553</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.23263025069895</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.31173025931077</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.628246885608689</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.430868619877579</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.440397947104169</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.227820430028</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.97345199471054</v>
+        <v>24.87276354994637</v>
       </c>
       <c r="C19">
-        <v>22.4033883500889</v>
+        <v>16.47162155079114</v>
       </c>
       <c r="D19">
-        <v>8.790375362995041</v>
+        <v>3.847137302200148</v>
       </c>
       <c r="E19">
-        <v>24.53208797344972</v>
+        <v>7.261966654046326</v>
       </c>
       <c r="F19">
-        <v>62.1806771869171</v>
+        <v>26.59674041419353</v>
       </c>
       <c r="G19">
-        <v>2.052752511625638</v>
+        <v>34.48079412714237</v>
       </c>
       <c r="H19">
-        <v>4.411514987705797</v>
+        <v>3.677079719452616</v>
       </c>
       <c r="I19">
-        <v>3.879578676368524</v>
+        <v>3.240959073055737</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.75360458748401</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.20855546170803</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.588403781166366</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.280081748331645</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.845385767710812</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.49654449930985</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.69820850587216</v>
+        <v>25.22113571106768</v>
       </c>
       <c r="C20">
-        <v>23.17917654727976</v>
+        <v>16.35710304530433</v>
       </c>
       <c r="D20">
-        <v>11.41151704201456</v>
+        <v>3.95100141719866</v>
       </c>
       <c r="E20">
-        <v>34.95363493126855</v>
+        <v>7.261666230281424</v>
       </c>
       <c r="F20">
-        <v>74.17869503357267</v>
+        <v>29.16469664968457</v>
       </c>
       <c r="G20">
-        <v>2.041462083656163</v>
+        <v>38.85744000638935</v>
       </c>
       <c r="H20">
-        <v>4.314225926561374</v>
+        <v>2.429375198222473</v>
       </c>
       <c r="I20">
-        <v>4.278525854025554</v>
+        <v>3.123014857408696</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.40752123248957</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.55821268619344</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.380076713336293</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.19774173280885</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.562019592159733</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.18479995117877</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.63458094084674</v>
+        <v>26.73333275186158</v>
       </c>
       <c r="C21">
-        <v>24.75784781552005</v>
+        <v>17.2357839138049</v>
       </c>
       <c r="D21">
-        <v>12.27927442675885</v>
+        <v>4.129098175480761</v>
       </c>
       <c r="E21">
-        <v>38.09980501401512</v>
+        <v>7.369214785731963</v>
       </c>
       <c r="F21">
-        <v>79.78419766314934</v>
+        <v>29.31259787357349</v>
       </c>
       <c r="G21">
-        <v>2.027249542232134</v>
+        <v>41.29560624123184</v>
       </c>
       <c r="H21">
-        <v>4.857352354950227</v>
+        <v>2.134175185347507</v>
       </c>
       <c r="I21">
-        <v>4.805519619189777</v>
+        <v>2.902582987980893</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.49940065901604</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.26768421713239</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.121596990306215</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.252414822772506</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.856297289075116</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.98202296850275</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.85232260185697</v>
+        <v>27.68393289161572</v>
       </c>
       <c r="C22">
-        <v>25.7093163221756</v>
+        <v>17.77336740415579</v>
       </c>
       <c r="D22">
-        <v>12.77195792536501</v>
+        <v>4.245857059514322</v>
       </c>
       <c r="E22">
-        <v>39.65220401541557</v>
+        <v>7.436987379281397</v>
       </c>
       <c r="F22">
-        <v>83.08140148289172</v>
+        <v>29.31554776049063</v>
       </c>
       <c r="G22">
-        <v>2.018208876805866</v>
+        <v>42.86709034883751</v>
       </c>
       <c r="H22">
-        <v>5.187829086509634</v>
+        <v>1.956187121610445</v>
       </c>
       <c r="I22">
-        <v>5.140100061090803</v>
+        <v>2.750165116022966</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.86569972473741</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.03062804093778</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.010226749785663</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.289886216806472</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.008733119461175</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.46013040529932</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.20893271165753</v>
+        <v>27.18255554337278</v>
       </c>
       <c r="C23">
-        <v>25.16305894123705</v>
+        <v>17.47523527910207</v>
       </c>
       <c r="D23">
-        <v>12.56410863771151</v>
+        <v>4.168269698640184</v>
       </c>
       <c r="E23">
-        <v>38.83252030482961</v>
+        <v>7.402536954783804</v>
       </c>
       <c r="F23">
-        <v>81.55397815487034</v>
+        <v>29.44020409096215</v>
       </c>
       <c r="G23">
-        <v>2.022918405131028</v>
+        <v>42.00107226352379</v>
       </c>
       <c r="H23">
-        <v>5.014325094539056</v>
+        <v>2.048467719876179</v>
       </c>
       <c r="I23">
-        <v>4.96347957896903</v>
+        <v>2.816274763158286</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.33269203419941</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.24049481577849</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.059527695323694</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.271360959916635</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.921409027478624</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.20197143238669</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.68185813993916</v>
+        <v>25.19030560911636</v>
       </c>
       <c r="C24">
-        <v>23.11238178875517</v>
+        <v>16.26522433469382</v>
       </c>
       <c r="D24">
-        <v>11.66976099974378</v>
+        <v>3.9467127648418</v>
       </c>
       <c r="E24">
-        <v>35.63223609375809</v>
+        <v>7.269007694049634</v>
       </c>
       <c r="F24">
-        <v>75.24053863113274</v>
+        <v>29.43411369589429</v>
       </c>
       <c r="G24">
-        <v>2.04088703992831</v>
+        <v>39.2776732443231</v>
       </c>
       <c r="H24">
-        <v>4.351378196554124</v>
+        <v>2.412369422223936</v>
       </c>
       <c r="I24">
-        <v>4.293550467567776</v>
+        <v>3.101616486620143</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.50331189080866</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.73604949672916</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.37203832037056</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.195362351842056</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.597505015970353</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.19817097768938</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.76275660477796</v>
+        <v>22.87477953953082</v>
       </c>
       <c r="C25">
-        <v>20.79094544270774</v>
+        <v>14.6865013729765</v>
       </c>
       <c r="D25">
-        <v>10.65831984704363</v>
+        <v>3.816422481274059</v>
       </c>
       <c r="E25">
-        <v>31.97679880725834</v>
+        <v>7.115087980577909</v>
       </c>
       <c r="F25">
-        <v>68.04404505137312</v>
+        <v>28.65312566691977</v>
       </c>
       <c r="G25">
-        <v>2.060308407478158</v>
+        <v>37.71727933437771</v>
       </c>
       <c r="H25">
-        <v>3.628166126820007</v>
+        <v>2.836632880051203</v>
       </c>
       <c r="I25">
-        <v>3.571692568677724</v>
+        <v>3.43974232224321</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.42279721607352</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.81018464374153</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.948530400448938</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.099260838102709</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.243513707581601</v>
       </c>
       <c r="Q25">
+        <v>14.04953032319375</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
